--- a/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H2">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.463409929581902</v>
+        <v>0.058393</v>
       </c>
       <c r="N2">
-        <v>0.463409929581902</v>
+        <v>0.175179</v>
       </c>
       <c r="O2">
-        <v>0.08765759042757373</v>
+        <v>0.01085373024912483</v>
       </c>
       <c r="P2">
-        <v>0.08765759042757373</v>
+        <v>0.01085373024912483</v>
       </c>
       <c r="Q2">
-        <v>5.911249748933736</v>
+        <v>1.319382672125333</v>
       </c>
       <c r="R2">
-        <v>5.911249748933736</v>
+        <v>11.874444049128</v>
       </c>
       <c r="S2">
-        <v>0.05430834960104663</v>
+        <v>0.008026354742145116</v>
       </c>
       <c r="T2">
-        <v>0.05430834960104663</v>
+        <v>0.008026354742145116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H3">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.82318222201038</v>
+        <v>0.4773683333333333</v>
       </c>
       <c r="N3">
-        <v>4.82318222201038</v>
+        <v>1.432105</v>
       </c>
       <c r="O3">
-        <v>0.9123424095724263</v>
+        <v>0.08873027793527143</v>
       </c>
       <c r="P3">
-        <v>0.9123424095724263</v>
+        <v>0.08873027793527143</v>
       </c>
       <c r="Q3">
-        <v>61.5244363120224</v>
+        <v>10.78607893448444</v>
       </c>
       <c r="R3">
-        <v>61.5244363120224</v>
+        <v>97.07471041036</v>
       </c>
       <c r="S3">
-        <v>0.565242670865554</v>
+        <v>0.06561621403250235</v>
       </c>
       <c r="T3">
-        <v>0.565242670865554</v>
+        <v>0.06561621403250235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.252694821842254</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H4">
-        <v>0.252694821842254</v>
+        <v>67.784632</v>
       </c>
       <c r="I4">
-        <v>0.0122732461913006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J4">
-        <v>0.0122732461913006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.463409929581902</v>
+        <v>4.844232333333333</v>
       </c>
       <c r="N4">
-        <v>0.463409929581902</v>
+        <v>14.532697</v>
       </c>
       <c r="O4">
-        <v>0.08765759042757373</v>
+        <v>0.9004159918156037</v>
       </c>
       <c r="P4">
-        <v>0.08765759042757373</v>
+        <v>0.9004159918156038</v>
       </c>
       <c r="Q4">
-        <v>0.1171012895956302</v>
+        <v>109.4548353458338</v>
       </c>
       <c r="R4">
-        <v>0.1171012895956302</v>
+        <v>985.0935181125041</v>
       </c>
       <c r="S4">
-        <v>0.001075843187853808</v>
+        <v>0.665859386582342</v>
       </c>
       <c r="T4">
-        <v>0.001075843187853808</v>
+        <v>0.6658593865823421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H5">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.82318222201038</v>
+        <v>0.058393</v>
       </c>
       <c r="N5">
-        <v>4.82318222201038</v>
+        <v>0.175179</v>
       </c>
       <c r="O5">
-        <v>0.9123424095724263</v>
+        <v>0.01085373024912483</v>
       </c>
       <c r="P5">
-        <v>0.9123424095724263</v>
+        <v>0.01085373024912483</v>
       </c>
       <c r="Q5">
-        <v>1.21879317230364</v>
+        <v>0.01778642994266667</v>
       </c>
       <c r="R5">
-        <v>1.21879317230364</v>
+        <v>0.160077869484</v>
       </c>
       <c r="S5">
-        <v>0.0111974030034468</v>
+        <v>0.0001082022671149596</v>
       </c>
       <c r="T5">
-        <v>0.0111974030034468</v>
+        <v>0.0001082022671149596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.58039885238086</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H6">
-        <v>7.58039885238086</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J6">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.463409929581902</v>
+        <v>0.4773683333333333</v>
       </c>
       <c r="N6">
-        <v>0.463409929581902</v>
+        <v>1.432105</v>
       </c>
       <c r="O6">
-        <v>0.08765759042757373</v>
+        <v>0.08873027793527143</v>
       </c>
       <c r="P6">
-        <v>0.08765759042757373</v>
+        <v>0.08873027793527143</v>
       </c>
       <c r="Q6">
-        <v>3.512832098384545</v>
+        <v>0.1454057578422222</v>
       </c>
       <c r="R6">
-        <v>3.512832098384545</v>
+        <v>1.30865182058</v>
       </c>
       <c r="S6">
-        <v>0.03227339763867329</v>
+        <v>0.0008845638332600896</v>
       </c>
       <c r="T6">
-        <v>0.03227339763867329</v>
+        <v>0.0008845638332600896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.58039885238086</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H7">
-        <v>7.58039885238086</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J7">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.82318222201038</v>
+        <v>4.844232333333333</v>
       </c>
       <c r="N7">
-        <v>4.82318222201038</v>
+        <v>14.532697</v>
       </c>
       <c r="O7">
-        <v>0.9123424095724263</v>
+        <v>0.9004159918156037</v>
       </c>
       <c r="P7">
-        <v>0.9123424095724263</v>
+        <v>0.9004159918156038</v>
       </c>
       <c r="Q7">
-        <v>36.56164498055125</v>
+        <v>1.475546709756889</v>
       </c>
       <c r="R7">
-        <v>36.56164498055125</v>
+        <v>13.279920387812</v>
       </c>
       <c r="S7">
-        <v>0.3359023357034254</v>
+        <v>0.008976365675650461</v>
       </c>
       <c r="T7">
-        <v>0.3359023357034254</v>
+        <v>0.008976365675650463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.654706</v>
+      </c>
+      <c r="H8">
+        <v>22.964118</v>
+      </c>
+      <c r="I8">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="J8">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.058393</v>
+      </c>
+      <c r="N8">
+        <v>0.175179</v>
+      </c>
+      <c r="O8">
+        <v>0.01085373024912483</v>
+      </c>
+      <c r="P8">
+        <v>0.01085373024912483</v>
+      </c>
+      <c r="Q8">
+        <v>0.446981247458</v>
+      </c>
+      <c r="R8">
+        <v>4.022831227121999</v>
+      </c>
+      <c r="S8">
+        <v>0.002719173239864753</v>
+      </c>
+      <c r="T8">
+        <v>0.002719173239864753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.654706</v>
+      </c>
+      <c r="H9">
+        <v>22.964118</v>
+      </c>
+      <c r="I9">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="J9">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4773683333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.432105</v>
+      </c>
+      <c r="O9">
+        <v>0.08873027793527143</v>
+      </c>
+      <c r="P9">
+        <v>0.08873027793527143</v>
+      </c>
+      <c r="Q9">
+        <v>3.654114245376667</v>
+      </c>
+      <c r="R9">
+        <v>32.88702820839</v>
+      </c>
+      <c r="S9">
+        <v>0.02222950006950897</v>
+      </c>
+      <c r="T9">
+        <v>0.02222950006950897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.654706</v>
+      </c>
+      <c r="H10">
+        <v>22.964118</v>
+      </c>
+      <c r="I10">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="J10">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.844232333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.532697</v>
+      </c>
+      <c r="O10">
+        <v>0.9004159918156037</v>
+      </c>
+      <c r="P10">
+        <v>0.9004159918156038</v>
+      </c>
+      <c r="Q10">
+        <v>37.08117430736067</v>
+      </c>
+      <c r="R10">
+        <v>333.730568766246</v>
+      </c>
+      <c r="S10">
+        <v>0.2255802395576112</v>
+      </c>
+      <c r="T10">
+        <v>0.2255802395576112</v>
       </c>
     </row>
   </sheetData>
